--- a/desafio1/Cadastro.xlsx
+++ b/desafio1/Cadastro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wande\Documents\bootcamp\python\desafio1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wande\Documents\Python-Scripts\desafio1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75747396-35BA-4D3C-B7BE-EDA306E08977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D270FB-A3BA-4DB6-BDF2-3ACA89AD06A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="14430" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -53,22 +53,13 @@
     <t>Aux. Admistrativo</t>
   </si>
   <si>
-    <t>Empresario</t>
-  </si>
-  <si>
     <t>Profissão</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>wandersonfv10@gmail.com</t>
-  </si>
-  <si>
-    <t>wandersonfv2009@hotmail.com</t>
-  </si>
-  <si>
-    <t>Chico</t>
+    <t>email@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -397,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,10 +412,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -441,35 +432,15 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{01CD31D6-8ADF-4AF1-A547-9C953F11D55C}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{EF66321F-EC9B-4CE7-A3FD-C39F7DCA2920}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{AD277598-995F-424B-B46D-87B95537BA25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
